--- a/classfiers/bottleneck/elm/smote/bottleneck_elm_rbf_linf_smote_results.xlsx
+++ b/classfiers/bottleneck/elm/smote/bottleneck_elm_rbf_linf_smote_results.xlsx
@@ -468,13 +468,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009302325581395349</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0184331797235023</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5127798304716366</v>
+        <v>0.5374213836477987</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.03030303030303031</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5275930272996001</v>
+        <v>0.4887711146604714</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5029462016998161</v>
+        <v>0.5111111111111111</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0045662100456621</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00909090909090909</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4928120425596993</v>
+        <v>0.518486150559561</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.009009009009009011</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5256385025802501</v>
+        <v>0.5425094778035954</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00277370712541149</v>
+        <v>0.006937184912497807</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005504817762882279</v>
+        <v>0.01364154194594782</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5123539209222004</v>
+        <v>0.5196598475565075</v>
       </c>
     </row>
   </sheetData>
